--- a/biology/Zoologie/Corydoras_semiaquilus/Corydoras_semiaquilus.xlsx
+++ b/biology/Zoologie/Corydoras_semiaquilus/Corydoras_semiaquilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras semiaquilus est une espèce de poissons-chats de la famille des Callichthyidae et de la sous-famille des Corydoradinae. Il naît dans les eaux douces intérieures en Amérique du Sud, et se trouve dans l'ouest du bassin du fleuve Amazone au Brésil et au Pérou. Il a été initialement décrit par S.H. Weitzman, en 1964.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson est appelé à atteindre une longueur maximale de 6,0 centimètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est appelé à atteindre une longueur maximale de 6,0 centimètres.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit dans un climat tropical avec une eau à 6,0 - 8,0 pH, la dureté de l'eau de 2 - 25 DGH, et une plage de température de 22 - 26 °C[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans un climat tropical avec une eau à 6,0 - 8,0 pH, la dureté de l'eau de 2 - 25 DGH, et une plage de température de 22 - 26 °C.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de vers, de crustacés benthiques, d'insectes et de végétaux.
 </t>
@@ -604,7 +622,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pond des œufs dans la végétation dense, les adultes n'ont pas la garde des œufs.
 Sur les autres projets Wikimedia :
